--- a/1.Supplementary/Supplementary Data 2.xlsx
+++ b/1.Supplementary/Supplementary Data 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkuhk-my.sharepoint.com/personal/iguibert_hku_hk/Documents/Research/Publications/2021-SIBER-CLAMS/1.June24_clams_paper/1_For_publication/18. Communication Biology/Revision/Sup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkuhk-my.sharepoint.com/personal/iguibert_hku_hk/Documents/Research/Publications/2021-SIBER-CLAMS/1.June24_clams_paper/1_For_publication/18. Communication Biology/Revision/1_Final_Revision_Acceptance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{1913980B-E3CB-194E-A648-F77290906850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E56E09B9-73BA-3C4A-9C34-EB65F2976BF7}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{1913980B-E3CB-194E-A648-F77290906850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF2DA96A-37E1-8344-B414-74536B3F68B9}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-10720" windowWidth="21600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13000" yWindow="-18720" windowWidth="21600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S2a" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="48">
-  <si>
-    <t>Guibert Isis, Conti-Jerpe Inga, Pons Leonard, Tayaban Kuselah, Sayco Sherry Lyn, Cabaitan Patrick, Conaco Cecilia, Baker M. David.
-Supplementary data 3: 
-Description of the giant clam samples
-Sheet 1</t>
-  </si>
   <si>
     <t>Sample</t>
   </si>
@@ -91,12 +85,6 @@
   </si>
   <si>
     <t>T. squamosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Supplementary data 3: 
-Description of the giant clams samples
-Sheet 2</t>
   </si>
   <si>
     <t>Shell length (cm)</t>
@@ -187,6 +175,18 @@
   </si>
   <si>
     <t>Average size (cm)</t>
+  </si>
+  <si>
+    <t>Guibert Isis, Conti-Jerpe Inga, Pons Leonard, Tayaban Kuselah, Sayco Sherry Lyn, Cabaitan Patrick, Conaco Cecilia, Baker M. David.
+Supplementary data 2: 
+Description of the giant clam samples
+Sheet 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Supplementary data 2: 
+Description of the giant clams samples
+Sheet 2</t>
   </si>
 </sst>
 </file>
@@ -291,17 +291,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +526,8 @@
   </sheetPr>
   <dimension ref="A1:Z145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -543,18 +543,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -573,16 +573,16 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -601,16 +601,16 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -629,16 +629,16 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -657,16 +657,16 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -714,34 +714,34 @@
     </row>
     <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -765,7 +765,7 @@
         <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6">
         <v>42542</v>
@@ -777,18 +777,18 @@
         <v>0.14205999999999999</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>27.8</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <v>4.46</v>
       </c>
       <c r="K8" s="5"/>
@@ -813,7 +813,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6">
         <v>42542</v>
@@ -825,18 +825,18 @@
         <v>0.11168</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>28.55</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <v>4.46</v>
       </c>
       <c r="K9" s="5"/>
@@ -861,7 +861,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6">
         <v>42542</v>
@@ -873,18 +873,18 @@
         <v>0.17491999999999999</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>33.130000000000003</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="15">
         <v>4.46</v>
       </c>
       <c r="K10" s="5"/>
@@ -909,7 +909,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6">
         <v>42542</v>
@@ -921,18 +921,18 @@
         <v>0.11776</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>27.11</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="15">
         <v>4.46</v>
       </c>
       <c r="K11" s="5"/>
@@ -957,7 +957,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6">
         <v>42542</v>
@@ -969,18 +969,18 @@
         <v>0.11905</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>20.11</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="15">
         <v>4.46</v>
       </c>
       <c r="K12" s="5"/>
@@ -1005,7 +1005,7 @@
         <v>84</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6">
         <v>42542</v>
@@ -1017,18 +1017,18 @@
         <v>0.13114999999999999</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>17.190000000000001</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="15">
         <v>4.46</v>
       </c>
       <c r="K13" s="5"/>
@@ -1053,7 +1053,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6">
         <v>42542</v>
@@ -1065,18 +1065,18 @@
         <v>9.4270000000000007E-2</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="16">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="15">
         <v>4.46</v>
       </c>
       <c r="K14" s="5"/>
@@ -1101,7 +1101,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="6">
         <v>42542</v>
@@ -1113,18 +1113,18 @@
         <v>0.13073000000000001</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>21.72</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <v>4.46</v>
       </c>
       <c r="K15" s="5"/>
@@ -1149,7 +1149,7 @@
         <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="6">
         <v>42542</v>
@@ -1161,18 +1161,18 @@
         <v>0.19395999999999999</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>23.73</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <v>4.46</v>
       </c>
       <c r="K16" s="5"/>
@@ -1197,7 +1197,7 @@
         <v>90</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="6">
         <v>42542</v>
@@ -1209,18 +1209,18 @@
         <v>0.11659</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>28.04</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="15">
         <v>4.46</v>
       </c>
       <c r="K17" s="5"/>
@@ -1245,7 +1245,7 @@
         <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="6">
         <v>42542</v>
@@ -1257,18 +1257,18 @@
         <v>0.16037000000000001</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>19.079999999999998</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <v>4.46</v>
       </c>
       <c r="K18" s="5"/>
@@ -1293,7 +1293,7 @@
         <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="6">
         <v>42542</v>
@@ -1305,18 +1305,18 @@
         <v>0.11706999999999999</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19">
         <v>26.71</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="15">
         <v>4.46</v>
       </c>
       <c r="K19" s="5"/>
@@ -1341,7 +1341,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="6">
         <v>42542</v>
@@ -1353,18 +1353,18 @@
         <v>0.16439999999999999</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>26.31</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="15">
         <v>4.46</v>
       </c>
       <c r="K20" s="5"/>
@@ -1389,7 +1389,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="6">
         <v>42542</v>
@@ -1401,18 +1401,18 @@
         <v>0.17055999999999999</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21">
         <v>23.13</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="15">
         <v>4.46</v>
       </c>
       <c r="K21" s="5"/>
@@ -1437,7 +1437,7 @@
         <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="6">
         <v>42542</v>
@@ -1449,18 +1449,18 @@
         <v>0.15725</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <v>23.36</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="15">
         <v>4.46</v>
       </c>
       <c r="K22" s="5"/>
@@ -1485,7 +1485,7 @@
         <v>105</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="6">
         <v>42542</v>
@@ -1497,18 +1497,18 @@
         <v>8.5440000000000002E-2</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>23.53</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="15">
         <v>4.46</v>
       </c>
       <c r="K23" s="5"/>
@@ -1533,7 +1533,7 @@
         <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="6">
         <v>42542</v>
@@ -1545,18 +1545,18 @@
         <v>0.1263</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>31.1</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="15">
         <v>4.46</v>
       </c>
       <c r="K24" s="5"/>
@@ -1581,7 +1581,7 @@
         <v>107</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="6">
         <v>42542</v>
@@ -1593,18 +1593,18 @@
         <v>0.10468</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25">
         <v>22.06</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="15">
         <v>4.46</v>
       </c>
       <c r="K25" s="5"/>
@@ -1629,7 +1629,7 @@
         <v>114</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="6">
         <v>42542</v>
@@ -1641,18 +1641,18 @@
         <v>0.156</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <v>22.56</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="15">
         <v>4.46</v>
       </c>
       <c r="K26" s="5"/>
@@ -1677,7 +1677,7 @@
         <v>116</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="6">
         <v>42542</v>
@@ -1689,18 +1689,18 @@
         <v>0.14166000000000001</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <v>28.32</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="15">
         <v>4.46</v>
       </c>
       <c r="K27" s="5"/>
@@ -1725,7 +1725,7 @@
         <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="6">
         <v>42542</v>
@@ -1737,18 +1737,18 @@
         <v>0.12944</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28">
         <v>20.92</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="15">
         <v>4.46</v>
       </c>
       <c r="K28" s="5"/>
@@ -1773,7 +1773,7 @@
         <v>119</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="6">
         <v>42542</v>
@@ -1785,18 +1785,18 @@
         <v>0.22808999999999999</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>20.97</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="15">
         <v>4.46</v>
       </c>
       <c r="K29" s="5"/>
@@ -1821,7 +1821,7 @@
         <v>125</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="6">
         <v>42542</v>
@@ -1833,18 +1833,18 @@
         <v>0.14824000000000001</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>24.37</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="15">
         <v>4.46</v>
       </c>
       <c r="K30" s="5"/>
@@ -1869,7 +1869,7 @@
         <v>127</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="6">
         <v>42542</v>
@@ -1881,18 +1881,18 @@
         <v>0.18276999999999999</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31">
         <v>35.28</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="15">
         <v>4.46</v>
       </c>
       <c r="K31" s="5"/>
@@ -1917,7 +1917,7 @@
         <v>130</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="6">
         <v>42542</v>
@@ -1929,18 +1929,18 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32">
         <v>21.74</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="14">
         <v>24.8675</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="15">
         <v>4.46</v>
       </c>
       <c r="K32" s="5"/>
@@ -1965,7 +1965,7 @@
         <v>52</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="6">
         <v>42621</v>
@@ -1977,18 +1977,18 @@
         <v>0.16708999999999999</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <v>24.35</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="14">
         <v>23.68</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="15">
         <v>1.46</v>
       </c>
       <c r="K33" s="5"/>
@@ -2013,7 +2013,7 @@
         <v>66</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="6">
         <v>42621</v>
@@ -2025,18 +2025,18 @@
         <v>0.16657</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="16">
+        <v>9</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="14">
         <v>23.68</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="15">
         <v>1.46</v>
       </c>
       <c r="K34" s="5"/>
@@ -2061,7 +2061,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="6">
         <v>42621</v>
@@ -2073,18 +2073,18 @@
         <v>0.16902</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35">
         <v>24.38</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="14">
         <v>23.68</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="15">
         <v>1.46</v>
       </c>
       <c r="K35" s="5"/>
@@ -2109,7 +2109,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="6">
         <v>42621</v>
@@ -2121,18 +2121,18 @@
         <v>0.15784000000000001</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36">
         <v>21.17</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="14">
         <v>23.68</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="15">
         <v>1.46</v>
       </c>
       <c r="K36" s="5"/>
@@ -2157,7 +2157,7 @@
         <v>121</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="6">
         <v>42621</v>
@@ -2169,18 +2169,18 @@
         <v>0.1676</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="16">
+        <v>9</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="14">
         <v>23.68</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="15">
         <v>1.46</v>
       </c>
       <c r="K37" s="5"/>
@@ -2205,7 +2205,7 @@
         <v>122</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="6">
         <v>42621</v>
@@ -2217,18 +2217,18 @@
         <v>0.29278999999999999</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38">
         <v>25.13</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="14">
         <v>23.68</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="15">
         <v>1.46</v>
       </c>
       <c r="K38" s="5"/>
@@ -2253,7 +2253,7 @@
         <v>139</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="6">
         <v>42621</v>
@@ -2265,18 +2265,18 @@
         <v>0.12479999999999999</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="16">
+        <v>9</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="14">
         <v>23.68</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="15">
         <v>1.46</v>
       </c>
       <c r="K39" s="5"/>
@@ -2301,7 +2301,7 @@
         <v>143</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="6">
         <v>42621</v>
@@ -2313,18 +2313,18 @@
         <v>0.16444</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40">
         <v>23.21</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="14">
         <v>23.68</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="15">
         <v>1.46</v>
       </c>
       <c r="K40" s="5"/>
@@ -2349,7 +2349,7 @@
         <v>147</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="6">
         <v>42621</v>
@@ -2361,18 +2361,18 @@
         <v>0.21611</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41">
         <v>24.79</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="14">
         <v>23.68</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="15">
         <v>1.46</v>
       </c>
       <c r="K41" s="5"/>
@@ -2397,7 +2397,7 @@
         <v>148</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="6">
         <v>42621</v>
@@ -2409,18 +2409,18 @@
         <v>0.16005</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42">
         <v>23.75</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="14">
         <v>23.68</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="15">
         <v>1.46</v>
       </c>
       <c r="K42" s="5"/>
@@ -2445,7 +2445,7 @@
         <v>149</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="6">
         <v>42621</v>
@@ -2457,18 +2457,18 @@
         <v>0.23483000000000001</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" s="16">
+        <v>9</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="14">
         <v>23.68</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="15">
         <v>1.46</v>
       </c>
       <c r="K43" s="5"/>
@@ -2493,7 +2493,7 @@
         <v>150</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="6">
         <v>42621</v>
@@ -2505,18 +2505,18 @@
         <v>0.16095000000000001</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H44">
         <v>24.71</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="14">
         <v>23.68</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="15">
         <v>1.46</v>
       </c>
       <c r="K44" s="5"/>
@@ -2541,7 +2541,7 @@
         <v>151</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" s="6">
         <v>42621</v>
@@ -2553,18 +2553,18 @@
         <v>0.17427000000000001</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45">
         <v>24.5</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="14">
         <v>23.68</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="15">
         <v>1.46</v>
       </c>
       <c r="K45" s="5"/>
@@ -2589,7 +2589,7 @@
         <v>154</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" s="6">
         <v>42621</v>
@@ -2601,18 +2601,18 @@
         <v>0.16328999999999999</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46">
         <v>25.56</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="14">
         <v>23.68</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="15">
         <v>1.46</v>
       </c>
       <c r="K46" s="5"/>
@@ -2637,7 +2637,7 @@
         <v>156</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="6">
         <v>42621</v>
@@ -2649,18 +2649,18 @@
         <v>0.15708</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H47">
         <v>23.07</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="14">
         <v>23.68</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="15">
         <v>1.46</v>
       </c>
       <c r="K47" s="5"/>
@@ -2685,7 +2685,7 @@
         <v>157</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" s="6">
         <v>42621</v>
@@ -2697,18 +2697,18 @@
         <v>0.17849000000000001</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H48">
         <v>25.66</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="14">
         <v>23.68</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="15">
         <v>1.46</v>
       </c>
       <c r="K48" s="5"/>
@@ -2733,7 +2733,7 @@
         <v>158</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" s="6">
         <v>42621</v>
@@ -2745,18 +2745,18 @@
         <v>0.15157000000000001</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H49">
         <v>24.57</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="14">
         <v>23.68</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="15">
         <v>1.46</v>
       </c>
       <c r="K49" s="5"/>
@@ -2781,7 +2781,7 @@
         <v>159</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="6">
         <v>42621</v>
@@ -2793,18 +2793,18 @@
         <v>0.10506</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H50">
         <v>21.56</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="14">
         <v>23.68</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="15">
         <v>1.46</v>
       </c>
       <c r="K50" s="5"/>
@@ -2829,7 +2829,7 @@
         <v>161</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" s="6">
         <v>42621</v>
@@ -2841,18 +2841,18 @@
         <v>0.16084000000000001</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" s="16">
+        <v>9</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="14">
         <v>23.68</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="15">
         <v>1.46</v>
       </c>
       <c r="K51" s="5"/>
@@ -2877,7 +2877,7 @@
         <v>162</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52" s="6">
         <v>42621</v>
@@ -2889,18 +2889,18 @@
         <v>0.1583</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H52">
         <v>22.26</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="14">
         <v>23.68</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="15">
         <v>1.46</v>
       </c>
       <c r="K52" s="5"/>
@@ -2925,7 +2925,7 @@
         <v>164</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" s="6">
         <v>42621</v>
@@ -2937,18 +2937,18 @@
         <v>0.25330999999999998</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>21.42</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="14">
         <v>23.68</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="15">
         <v>1.46</v>
       </c>
       <c r="K53" s="5"/>
@@ -2973,7 +2973,7 @@
         <v>169</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" s="6">
         <v>42621</v>
@@ -2985,18 +2985,18 @@
         <v>0.14735000000000001</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H54">
         <v>22.47</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="14">
         <v>23.68</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="15">
         <v>1.46</v>
       </c>
       <c r="K54" s="5"/>
@@ -3021,7 +3021,7 @@
         <v>170</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" s="6">
         <v>42621</v>
@@ -3033,18 +3033,18 @@
         <v>0.29333999999999999</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" s="16">
+        <v>9</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="14">
         <v>23.68</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="15">
         <v>1.46</v>
       </c>
       <c r="K55" s="5"/>
@@ -3069,7 +3069,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" s="6">
         <v>42073</v>
@@ -3081,18 +3081,18 @@
         <v>6.3420000000000004E-2</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H56">
         <v>23.48</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="15">
         <v>3.26</v>
       </c>
       <c r="K56" s="5"/>
@@ -3117,7 +3117,7 @@
         <v>17</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="6">
         <v>42073</v>
@@ -3129,18 +3129,18 @@
         <v>0.12709999999999999</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57">
         <v>15.23</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="15">
         <v>3.26</v>
       </c>
       <c r="K57" s="5"/>
@@ -3165,7 +3165,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="6">
         <v>42073</v>
@@ -3177,18 +3177,18 @@
         <v>0.14388000000000001</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H58">
         <v>28.47</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="15">
         <v>3.26</v>
       </c>
       <c r="K58" s="5"/>
@@ -3213,7 +3213,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="6">
         <v>42073</v>
@@ -3225,18 +3225,18 @@
         <v>0.13056000000000001</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H59">
         <v>19.91</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="15">
         <v>3.26</v>
       </c>
       <c r="K59" s="5"/>
@@ -3261,7 +3261,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" s="6">
         <v>42073</v>
@@ -3273,18 +3273,18 @@
         <v>6.676E-2</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H60">
         <v>19.940000000000001</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="15">
         <v>3.26</v>
       </c>
       <c r="K60" s="5"/>
@@ -3309,7 +3309,7 @@
         <v>26</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="6">
         <v>42073</v>
@@ -3321,18 +3321,18 @@
         <v>0.13913</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61">
         <v>21.53</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="15">
         <v>3.26</v>
       </c>
       <c r="K61" s="5"/>
@@ -3357,7 +3357,7 @@
         <v>27</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="6">
         <v>42073</v>
@@ -3369,18 +3369,18 @@
         <v>4.8340000000000001E-2</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H62">
         <v>19.68</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="15">
         <v>3.26</v>
       </c>
       <c r="K62" s="5"/>
@@ -3405,7 +3405,7 @@
         <v>29</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" s="6">
         <v>42073</v>
@@ -3417,18 +3417,18 @@
         <v>0.12289</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I63" s="16">
+        <v>9</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J63" s="15">
         <v>3.26</v>
       </c>
       <c r="K63" s="5"/>
@@ -3453,7 +3453,7 @@
         <v>33</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" s="6">
         <v>42073</v>
@@ -3465,18 +3465,18 @@
         <v>6.9330000000000003E-2</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H64">
         <v>24.36</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="15">
         <v>3.26</v>
       </c>
       <c r="K64" s="5"/>
@@ -3501,7 +3501,7 @@
         <v>34</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="6">
         <v>42073</v>
@@ -3513,18 +3513,18 @@
         <v>4.6350000000000002E-2</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H65">
         <v>23.72</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J65" s="15">
         <v>3.26</v>
       </c>
       <c r="K65" s="5"/>
@@ -3549,7 +3549,7 @@
         <v>35</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="6">
         <v>42073</v>
@@ -3561,18 +3561,18 @@
         <v>0.10476000000000001</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H66">
         <v>14.93</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I66" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J66" s="15">
         <v>3.26</v>
       </c>
       <c r="K66" s="5"/>
@@ -3597,7 +3597,7 @@
         <v>37</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="6">
         <v>42073</v>
@@ -3609,18 +3609,18 @@
         <v>0.11650000000000001</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H67">
         <v>19.420000000000002</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J67" s="15">
         <v>3.26</v>
       </c>
       <c r="K67" s="5"/>
@@ -3645,7 +3645,7 @@
         <v>39</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" s="6">
         <v>42073</v>
@@ -3657,18 +3657,18 @@
         <v>0.20791000000000001</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I68" s="16">
+        <v>9</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J68" s="15">
         <v>3.26</v>
       </c>
       <c r="K68" s="5"/>
@@ -3693,7 +3693,7 @@
         <v>41</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" s="6">
         <v>42073</v>
@@ -3705,18 +3705,18 @@
         <v>0.11348</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H69">
         <v>21.82</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="15">
         <v>3.26</v>
       </c>
       <c r="K69" s="5"/>
@@ -3741,7 +3741,7 @@
         <v>42</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" s="6">
         <v>42073</v>
@@ -3753,18 +3753,18 @@
         <v>9.8640000000000005E-2</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H70">
         <v>22.12</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J70" s="15">
         <v>3.26</v>
       </c>
       <c r="K70" s="5"/>
@@ -3789,7 +3789,7 @@
         <v>45</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" s="6">
         <v>42073</v>
@@ -3801,18 +3801,18 @@
         <v>9.1829999999999995E-2</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H71">
         <v>18.170000000000002</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="15">
         <v>3.26</v>
       </c>
       <c r="K71" s="5"/>
@@ -3837,7 +3837,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="6">
         <v>42073</v>
@@ -3849,18 +3849,18 @@
         <v>8.3699999999999997E-2</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H72">
         <v>18.18</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I72" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J72" s="15">
         <v>3.26</v>
       </c>
       <c r="K72" s="5"/>
@@ -3885,7 +3885,7 @@
         <v>50</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="6">
         <v>42073</v>
@@ -3897,18 +3897,18 @@
         <v>9.4329999999999997E-2</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H73">
         <v>16.809999999999999</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J73" s="15">
         <v>3.26</v>
       </c>
       <c r="K73" s="5"/>
@@ -3933,7 +3933,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" s="6">
         <v>42073</v>
@@ -3945,18 +3945,18 @@
         <v>0.14924000000000001</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H74">
         <v>20.47</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J74" s="15">
         <v>3.26</v>
       </c>
       <c r="K74" s="5"/>
@@ -3981,7 +3981,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="6">
         <v>42073</v>
@@ -3993,18 +3993,18 @@
         <v>9.2700000000000005E-2</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H75">
         <v>17.82</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I75" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J75" s="15">
         <v>3.26</v>
       </c>
       <c r="K75" s="5"/>
@@ -4029,7 +4029,7 @@
         <v>55</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="6">
         <v>42073</v>
@@ -4041,18 +4041,18 @@
         <v>5.6480000000000002E-2</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H76">
         <v>19.559999999999999</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J76" s="15">
         <v>3.26</v>
       </c>
       <c r="K76" s="5"/>
@@ -4077,7 +4077,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" s="6">
         <v>42073</v>
@@ -4089,18 +4089,18 @@
         <v>9.3829999999999997E-2</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H77">
         <v>17.84</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I77" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J77" s="15">
         <v>3.26</v>
       </c>
       <c r="K77" s="5"/>
@@ -4125,7 +4125,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="6">
         <v>42073</v>
@@ -4137,18 +4137,18 @@
         <v>7.6399999999999996E-2</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H78">
         <v>12.52</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I78" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J78" s="15">
         <v>3.26</v>
       </c>
       <c r="K78" s="5"/>
@@ -4173,7 +4173,7 @@
         <v>59</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="6">
         <v>42073</v>
@@ -4185,18 +4185,18 @@
         <v>7.4950000000000003E-2</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H79">
         <v>18.61</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I79" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J79" s="15">
         <v>3.26</v>
       </c>
       <c r="K79" s="5"/>
@@ -4221,7 +4221,7 @@
         <v>60</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" s="6">
         <v>42073</v>
@@ -4233,18 +4233,18 @@
         <v>0.16125</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H80">
         <v>20.04</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I80" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J80" s="15">
         <v>3.26</v>
       </c>
       <c r="K80" s="5"/>
@@ -4269,7 +4269,7 @@
         <v>61</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" s="6">
         <v>42073</v>
@@ -4281,18 +4281,18 @@
         <v>0.10002</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H81">
         <v>22.13</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I81" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J81" s="15">
         <v>3.26</v>
       </c>
       <c r="K81" s="5"/>
@@ -4317,7 +4317,7 @@
         <v>65</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" s="6">
         <v>42073</v>
@@ -4329,18 +4329,18 @@
         <v>0.10951</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H82">
         <v>20.69</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I82" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J82" s="15">
         <v>3.26</v>
       </c>
       <c r="K82" s="5"/>
@@ -4365,7 +4365,7 @@
         <v>67</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" s="6">
         <v>42073</v>
@@ -4377,18 +4377,18 @@
         <v>8.6660000000000001E-2</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H83">
         <v>19.86</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I83" s="14">
         <v>19.896538461538459</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J83" s="15">
         <v>3.26</v>
       </c>
       <c r="K83" s="5"/>
@@ -4413,7 +4413,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" s="6">
         <v>42528</v>
@@ -4425,18 +4425,18 @@
         <v>0.11351</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H84">
         <v>31.32</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I84" s="14">
         <v>31.084</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J84" s="15">
         <v>3.64</v>
       </c>
       <c r="K84" s="5"/>
@@ -4461,7 +4461,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85" s="6">
         <v>42528</v>
@@ -4473,18 +4473,18 @@
         <v>0.14613999999999999</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H85">
         <v>29.01</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I85" s="14">
         <v>31.084</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J85" s="15">
         <v>3.64</v>
       </c>
       <c r="K85" s="5"/>
@@ -4509,7 +4509,7 @@
         <v>16</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" s="6">
         <v>42528</v>
@@ -4521,18 +4521,18 @@
         <v>2.6429999999999999E-2</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H86">
         <v>34.07</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I86" s="14">
         <v>31.084</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J86" s="15">
         <v>3.64</v>
       </c>
       <c r="K86" s="5"/>
@@ -4557,7 +4557,7 @@
         <v>23</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="6">
         <v>42528</v>
@@ -4569,18 +4569,18 @@
         <v>0.10306</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H87">
         <v>32.99</v>
       </c>
-      <c r="I87" s="16">
+      <c r="I87" s="14">
         <v>31.084</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J87" s="15">
         <v>3.64</v>
       </c>
       <c r="K87" s="5"/>
@@ -4605,7 +4605,7 @@
         <v>30</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="6">
         <v>42528</v>
@@ -4617,18 +4617,18 @@
         <v>0.14466000000000001</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H88">
         <v>33.340000000000003</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I88" s="14">
         <v>31.084</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J88" s="15">
         <v>3.64</v>
       </c>
       <c r="K88" s="5"/>
@@ -4653,7 +4653,7 @@
         <v>44</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" s="6">
         <v>42528</v>
@@ -4665,18 +4665,18 @@
         <v>9.0620000000000006E-2</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H89">
         <v>29.57</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I89" s="14">
         <v>31.084</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J89" s="15">
         <v>3.64</v>
       </c>
       <c r="K89" s="5"/>
@@ -4701,7 +4701,7 @@
         <v>48</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C90" s="6">
         <v>42528</v>
@@ -4713,18 +4713,18 @@
         <v>0.12803</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H90">
         <v>42</v>
       </c>
-      <c r="I90" s="16">
+      <c r="I90" s="14">
         <v>31.084</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="15">
         <v>3.64</v>
       </c>
       <c r="K90" s="5"/>
@@ -4749,7 +4749,7 @@
         <v>64</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91" s="6">
         <v>42528</v>
@@ -4761,18 +4761,18 @@
         <v>0.12034</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H91">
         <v>29.39</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I91" s="14">
         <v>31.084</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J91" s="15">
         <v>3.64</v>
       </c>
       <c r="K91" s="5"/>
@@ -4797,7 +4797,7 @@
         <v>68</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="6">
         <v>42528</v>
@@ -4809,18 +4809,18 @@
         <v>9.0870000000000006E-2</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I92" s="16">
+        <v>9</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I92" s="14">
         <v>31.084</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J92" s="15">
         <v>3.64</v>
       </c>
       <c r="K92" s="5"/>
@@ -4845,7 +4845,7 @@
         <v>74</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" s="6">
         <v>42528</v>
@@ -4857,18 +4857,18 @@
         <v>5.2330000000000002E-2</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I93" s="16">
+        <v>9</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I93" s="14">
         <v>31.084</v>
       </c>
-      <c r="J93" s="17">
+      <c r="J93" s="15">
         <v>3.64</v>
       </c>
       <c r="K93" s="5"/>
@@ -4893,7 +4893,7 @@
         <v>76</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" s="6">
         <v>42528</v>
@@ -4905,18 +4905,18 @@
         <v>6.905E-2</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H94">
         <v>24.63</v>
       </c>
-      <c r="I94" s="16">
+      <c r="I94" s="14">
         <v>31.084</v>
       </c>
-      <c r="J94" s="17">
+      <c r="J94" s="15">
         <v>3.64</v>
       </c>
       <c r="K94" s="5"/>
@@ -4941,7 +4941,7 @@
         <v>78</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" s="6">
         <v>42528</v>
@@ -4953,18 +4953,18 @@
         <v>0.11995</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H95">
         <v>27.36</v>
       </c>
-      <c r="I95" s="16">
+      <c r="I95" s="14">
         <v>31.084</v>
       </c>
-      <c r="J95" s="17">
+      <c r="J95" s="15">
         <v>3.64</v>
       </c>
       <c r="K95" s="5"/>
@@ -4989,7 +4989,7 @@
         <v>85</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="6">
         <v>42528</v>
@@ -5001,18 +5001,18 @@
         <v>9.6079999999999999E-2</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H96">
         <v>28.83</v>
       </c>
-      <c r="I96" s="16">
+      <c r="I96" s="14">
         <v>31.084</v>
       </c>
-      <c r="J96" s="17">
+      <c r="J96" s="15">
         <v>3.64</v>
       </c>
       <c r="K96" s="5"/>
@@ -5037,7 +5037,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97" s="6">
         <v>42528</v>
@@ -5049,18 +5049,18 @@
         <v>0.14768999999999999</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H97">
         <v>33.1</v>
       </c>
-      <c r="I97" s="16">
+      <c r="I97" s="14">
         <v>31.084</v>
       </c>
-      <c r="J97" s="17">
+      <c r="J97" s="15">
         <v>3.64</v>
       </c>
       <c r="K97" s="5"/>
@@ -5085,7 +5085,7 @@
         <v>102</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C98" s="6">
         <v>42528</v>
@@ -5097,18 +5097,18 @@
         <v>6.5640000000000004E-2</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H98">
         <v>29.51</v>
       </c>
-      <c r="I98" s="16">
+      <c r="I98" s="14">
         <v>31.084</v>
       </c>
-      <c r="J98" s="17">
+      <c r="J98" s="15">
         <v>3.64</v>
       </c>
       <c r="K98" s="5"/>
@@ -5133,7 +5133,7 @@
         <v>104</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" s="6">
         <v>42528</v>
@@ -5145,18 +5145,18 @@
         <v>9.9510000000000001E-2</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I99" s="16">
+        <v>9</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I99" s="14">
         <v>31.084</v>
       </c>
-      <c r="J99" s="17">
+      <c r="J99" s="15">
         <v>3.64</v>
       </c>
       <c r="K99" s="5"/>
@@ -5181,7 +5181,7 @@
         <v>110</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" s="6">
         <v>42528</v>
@@ -5193,18 +5193,18 @@
         <v>0.18275</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I100" s="16">
+        <v>9</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I100" s="14">
         <v>31.084</v>
       </c>
-      <c r="J100" s="17">
+      <c r="J100" s="15">
         <v>3.64</v>
       </c>
       <c r="K100" s="5"/>
@@ -5229,7 +5229,7 @@
         <v>113</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101" s="6">
         <v>42528</v>
@@ -5241,18 +5241,18 @@
         <v>0.1139</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H101">
         <v>30.51</v>
       </c>
-      <c r="I101" s="16">
+      <c r="I101" s="14">
         <v>31.084</v>
       </c>
-      <c r="J101" s="17">
+      <c r="J101" s="15">
         <v>3.64</v>
       </c>
       <c r="K101" s="5"/>
@@ -5277,7 +5277,7 @@
         <v>124</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="6">
         <v>42528</v>
@@ -5289,18 +5289,18 @@
         <v>0.10117</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H102">
         <v>32.97</v>
       </c>
-      <c r="I102" s="16">
+      <c r="I102" s="14">
         <v>31.084</v>
       </c>
-      <c r="J102" s="17">
+      <c r="J102" s="15">
         <v>3.64</v>
       </c>
       <c r="K102" s="5"/>
@@ -5325,7 +5325,7 @@
         <v>126</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" s="6">
         <v>42528</v>
@@ -5337,18 +5337,18 @@
         <v>9.0889999999999999E-2</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I103" s="16">
+        <v>9</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I103" s="14">
         <v>31.084</v>
       </c>
-      <c r="J103" s="17">
+      <c r="J103" s="15">
         <v>3.64</v>
       </c>
       <c r="K103" s="5"/>
@@ -5373,7 +5373,7 @@
         <v>128</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104" s="6">
         <v>42528</v>
@@ -5385,18 +5385,18 @@
         <v>5.3530000000000001E-2</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H104">
         <v>32.64</v>
       </c>
-      <c r="I104" s="16">
+      <c r="I104" s="14">
         <v>31.084</v>
       </c>
-      <c r="J104" s="17">
+      <c r="J104" s="15">
         <v>3.64</v>
       </c>
       <c r="K104" s="5"/>
@@ -5421,7 +5421,7 @@
         <v>133</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C105" s="6">
         <v>42528</v>
@@ -5433,18 +5433,18 @@
         <v>7.3700000000000002E-2</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H105">
         <v>26.35</v>
       </c>
-      <c r="I105" s="16">
+      <c r="I105" s="14">
         <v>31.084</v>
       </c>
-      <c r="J105" s="17">
+      <c r="J105" s="15">
         <v>3.64</v>
       </c>
       <c r="K105" s="5"/>
@@ -5469,7 +5469,7 @@
         <v>135</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" s="6">
         <v>42528</v>
@@ -5481,18 +5481,18 @@
         <v>5.901E-2</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H106">
         <v>32.58</v>
       </c>
-      <c r="I106" s="16">
+      <c r="I106" s="14">
         <v>31.084</v>
       </c>
-      <c r="J106" s="17">
+      <c r="J106" s="15">
         <v>3.64</v>
       </c>
       <c r="K106" s="5"/>
@@ -5517,7 +5517,7 @@
         <v>137</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C107" s="6">
         <v>42528</v>
@@ -5529,18 +5529,18 @@
         <v>8.201E-2</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I107" s="16">
+        <v>9</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I107" s="14">
         <v>31.084</v>
       </c>
-      <c r="J107" s="17">
+      <c r="J107" s="15">
         <v>3.64</v>
       </c>
       <c r="K107" s="5"/>
@@ -5565,7 +5565,7 @@
         <v>141</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" s="6">
         <v>42528</v>
@@ -5577,18 +5577,18 @@
         <v>0.11049</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I108" s="16">
+        <v>9</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I108" s="14">
         <v>31.084</v>
       </c>
-      <c r="J108" s="17">
+      <c r="J108" s="15">
         <v>3.64</v>
       </c>
       <c r="K108" s="5"/>
@@ -5613,7 +5613,7 @@
         <v>142</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" s="6">
         <v>42528</v>
@@ -5625,18 +5625,18 @@
         <v>8.9349999999999999E-2</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H109">
         <v>32.619999999999997</v>
       </c>
-      <c r="I109" s="16">
+      <c r="I109" s="14">
         <v>31.084</v>
       </c>
-      <c r="J109" s="17">
+      <c r="J109" s="15">
         <v>3.64</v>
       </c>
       <c r="K109" s="5"/>
@@ -5661,7 +5661,7 @@
         <v>166</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" s="6">
         <v>42528</v>
@@ -5673,18 +5673,18 @@
         <v>7.6439999999999994E-2</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H110">
         <v>28.89</v>
       </c>
-      <c r="I110" s="16">
+      <c r="I110" s="14">
         <v>31.084</v>
       </c>
-      <c r="J110" s="17">
+      <c r="J110" s="15">
         <v>3.64</v>
       </c>
       <c r="K110" s="5"/>
@@ -5709,7 +5709,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" s="6">
         <v>42073</v>
@@ -5721,18 +5721,18 @@
         <v>0.24365000000000001</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I111" s="16">
+        <v>9</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I111" s="14">
         <v>16.93</v>
       </c>
-      <c r="J111" s="17">
+      <c r="J111" s="15">
         <v>1.72</v>
       </c>
       <c r="K111" s="5"/>
@@ -5757,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112" s="6">
         <v>42073</v>
@@ -5769,18 +5769,18 @@
         <v>8.054E-2</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H112">
         <v>18.09</v>
       </c>
-      <c r="I112" s="16">
+      <c r="I112" s="14">
         <v>16.93</v>
       </c>
-      <c r="J112" s="17">
+      <c r="J112" s="15">
         <v>1.72</v>
       </c>
       <c r="K112" s="5"/>
@@ -5805,7 +5805,7 @@
         <v>8</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113" s="6">
         <v>42073</v>
@@ -5817,18 +5817,18 @@
         <v>0.15679000000000001</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H113">
         <v>17.739999999999998</v>
       </c>
-      <c r="I113" s="16">
+      <c r="I113" s="14">
         <v>16.93</v>
       </c>
-      <c r="J113" s="17">
+      <c r="J113" s="15">
         <v>1.72</v>
       </c>
       <c r="K113" s="1"/>
@@ -5853,7 +5853,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" s="6">
         <v>42073</v>
@@ -5865,18 +5865,18 @@
         <v>0.21945999999999999</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I114" s="16">
+        <v>9</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114" s="14">
         <v>16.93</v>
       </c>
-      <c r="J114" s="17">
+      <c r="J114" s="15">
         <v>1.72</v>
       </c>
       <c r="K114" s="1"/>
@@ -5901,7 +5901,7 @@
         <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" s="6">
         <v>42073</v>
@@ -5913,18 +5913,18 @@
         <v>0.17782999999999999</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I115" s="16">
+        <v>9</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I115" s="14">
         <v>16.93</v>
       </c>
-      <c r="J115" s="17">
+      <c r="J115" s="15">
         <v>1.72</v>
       </c>
       <c r="K115" s="1"/>
@@ -5949,7 +5949,7 @@
         <v>13</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" s="6">
         <v>42073</v>
@@ -5961,18 +5961,18 @@
         <v>0.13525999999999999</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I116" s="16">
+        <v>9</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I116" s="14">
         <v>16.93</v>
       </c>
-      <c r="J116" s="17">
+      <c r="J116" s="15">
         <v>1.72</v>
       </c>
       <c r="K116" s="1"/>
@@ -5997,7 +5997,7 @@
         <v>14</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" s="6">
         <v>42073</v>
@@ -6009,18 +6009,18 @@
         <v>0.18690000000000001</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H117">
         <v>14.38</v>
       </c>
-      <c r="I117" s="16">
+      <c r="I117" s="14">
         <v>16.93</v>
       </c>
-      <c r="J117" s="17">
+      <c r="J117" s="15">
         <v>1.72</v>
       </c>
       <c r="K117" s="1"/>
@@ -6045,7 +6045,7 @@
         <v>15</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" s="6">
         <v>42073</v>
@@ -6057,18 +6057,18 @@
         <v>0.14013</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H118">
         <v>17.510000000000002</v>
       </c>
-      <c r="I118" s="16">
+      <c r="I118" s="14">
         <v>16.93</v>
       </c>
-      <c r="J118" s="17">
+      <c r="J118" s="15">
         <v>1.72</v>
       </c>
       <c r="K118" s="1"/>
@@ -6093,7 +6093,7 @@
         <v>20</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" s="6">
         <v>42073</v>
@@ -6105,18 +6105,18 @@
         <v>0.14602000000000001</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I119" s="16">
+        <v>9</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I119" s="14">
         <v>16.93</v>
       </c>
-      <c r="J119" s="17">
+      <c r="J119" s="15">
         <v>1.72</v>
       </c>
       <c r="K119" s="1"/>
@@ -6141,7 +6141,7 @@
         <v>19</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C120" s="6">
         <v>42402</v>
@@ -6153,18 +6153,18 @@
         <v>0.15834999999999999</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H120">
         <v>22.21</v>
       </c>
-      <c r="I120" s="16">
+      <c r="I120" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J120" s="17">
+      <c r="J120" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K120" s="1"/>
@@ -6189,7 +6189,7 @@
         <v>32</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C121" s="6">
         <v>42402</v>
@@ -6201,18 +6201,18 @@
         <v>0.11544</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I121" s="16">
+        <v>9</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I121" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J121" s="17">
+      <c r="J121" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K121" s="1"/>
@@ -6237,7 +6237,7 @@
         <v>38</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C122" s="6">
         <v>42402</v>
@@ -6249,18 +6249,18 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H122">
         <v>16.059999999999999</v>
       </c>
-      <c r="I122" s="16">
+      <c r="I122" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J122" s="17">
+      <c r="J122" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K122" s="1"/>
@@ -6285,7 +6285,7 @@
         <v>43</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C123" s="6">
         <v>42402</v>
@@ -6297,18 +6297,18 @@
         <v>0.1137</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I123" s="16">
+        <v>9</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I123" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J123" s="17">
+      <c r="J123" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K123" s="1"/>
@@ -6333,7 +6333,7 @@
         <v>47</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C124" s="6">
         <v>42402</v>
@@ -6345,18 +6345,18 @@
         <v>0.1211</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H124">
         <v>17.649999999999999</v>
       </c>
-      <c r="I124" s="16">
+      <c r="I124" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J124" s="17">
+      <c r="J124" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K124" s="1"/>
@@ -6381,7 +6381,7 @@
         <v>49</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C125" s="6">
         <v>42402</v>
@@ -6393,18 +6393,18 @@
         <v>7.7890000000000001E-2</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H125">
         <v>18.54</v>
       </c>
-      <c r="I125" s="16">
+      <c r="I125" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J125" s="17">
+      <c r="J125" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K125" s="1"/>
@@ -6429,7 +6429,7 @@
         <v>62</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C126" s="6">
         <v>42402</v>
@@ -6441,18 +6441,18 @@
         <v>0.15049000000000001</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H126">
         <v>20.85</v>
       </c>
-      <c r="I126" s="16">
+      <c r="I126" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J126" s="17">
+      <c r="J126" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K126" s="1"/>
@@ -6477,7 +6477,7 @@
         <v>72</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C127" s="6">
         <v>42402</v>
@@ -6489,18 +6489,18 @@
         <v>0.12909000000000001</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H127">
         <v>19.98</v>
       </c>
-      <c r="I127" s="16">
+      <c r="I127" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J127" s="17">
+      <c r="J127" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K127" s="1"/>
@@ -6525,7 +6525,7 @@
         <v>73</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C128" s="6">
         <v>42402</v>
@@ -6537,18 +6537,18 @@
         <v>0.11574</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H128">
         <v>25.3</v>
       </c>
-      <c r="I128" s="16">
+      <c r="I128" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J128" s="17">
+      <c r="J128" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K128" s="1"/>
@@ -6573,7 +6573,7 @@
         <v>77</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129" s="6">
         <v>42402</v>
@@ -6585,18 +6585,18 @@
         <v>8.4879999999999997E-2</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H129">
         <v>16.989999999999998</v>
       </c>
-      <c r="I129" s="16">
+      <c r="I129" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J129" s="17">
+      <c r="J129" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K129" s="1"/>
@@ -6621,7 +6621,7 @@
         <v>79</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C130" s="6">
         <v>42402</v>
@@ -6633,18 +6633,18 @@
         <v>9.9599999999999994E-2</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H130">
         <v>16.47</v>
       </c>
-      <c r="I130" s="16">
+      <c r="I130" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J130" s="17">
+      <c r="J130" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K130" s="1"/>
@@ -6669,7 +6669,7 @@
         <v>81</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" s="6">
         <v>42402</v>
@@ -6681,18 +6681,18 @@
         <v>0.1802</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H131">
         <v>22.8</v>
       </c>
-      <c r="I131" s="16">
+      <c r="I131" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J131" s="17">
+      <c r="J131" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K131" s="1"/>
@@ -6717,7 +6717,7 @@
         <v>93</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C132" s="6">
         <v>42402</v>
@@ -6729,18 +6729,18 @@
         <v>0.10639999999999999</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H132">
         <v>19.329999999999998</v>
       </c>
-      <c r="I132" s="16">
+      <c r="I132" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J132" s="17">
+      <c r="J132" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K132" s="1"/>
@@ -6765,7 +6765,7 @@
         <v>98</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C133" s="6">
         <v>42402</v>
@@ -6777,15 +6777,15 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133" s="16">
+        <v>9</v>
+      </c>
+      <c r="I133" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J133" s="17">
+      <c r="J133" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K133" s="1"/>
@@ -6810,7 +6810,7 @@
         <v>108</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C134" s="6">
         <v>42402</v>
@@ -6822,18 +6822,18 @@
         <v>0.10976</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H134">
         <v>15.78</v>
       </c>
-      <c r="I134" s="16">
+      <c r="I134" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J134" s="17">
+      <c r="J134" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K134" s="1"/>
@@ -6858,7 +6858,7 @@
         <v>111</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C135" s="6">
         <v>42402</v>
@@ -6870,18 +6870,18 @@
         <v>9.7710000000000005E-2</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H135">
         <v>17.59</v>
       </c>
-      <c r="I135" s="16">
+      <c r="I135" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J135" s="17">
+      <c r="J135" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K135" s="1"/>
@@ -6906,7 +6906,7 @@
         <v>129</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C136" s="6">
         <v>42402</v>
@@ -6918,15 +6918,15 @@
         <v>0.15013000000000001</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="16">
+        <v>9</v>
+      </c>
+      <c r="I136" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J136" s="17">
+      <c r="J136" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K136" s="1"/>
@@ -6951,7 +6951,7 @@
         <v>132</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C137" s="6">
         <v>42402</v>
@@ -6963,18 +6963,18 @@
         <v>0.13353000000000001</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H137">
         <v>18.920000000000002</v>
       </c>
-      <c r="I137" s="16">
+      <c r="I137" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J137" s="17">
+      <c r="J137" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K137" s="1"/>
@@ -6999,7 +6999,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C138" s="6">
         <v>42402</v>
@@ -7011,18 +7011,18 @@
         <v>0.10793</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H138">
         <v>21.05</v>
       </c>
-      <c r="I138" s="16">
+      <c r="I138" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J138" s="17">
+      <c r="J138" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K138" s="5"/>
@@ -7047,7 +7047,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C139" s="6">
         <v>42402</v>
@@ -7059,18 +7059,18 @@
         <v>9.1509999999999994E-2</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H139">
         <v>21.04</v>
       </c>
-      <c r="I139" s="16">
+      <c r="I139" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J139" s="17">
+      <c r="J139" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K139" s="5"/>
@@ -7095,7 +7095,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C140" s="6">
         <v>42402</v>
@@ -7107,18 +7107,18 @@
         <v>7.1160000000000001E-2</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H140">
         <v>16.489999999999998</v>
       </c>
-      <c r="I140" s="16">
+      <c r="I140" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J140" s="17">
+      <c r="J140" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K140" s="5"/>
@@ -7143,7 +7143,7 @@
         <v>145</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C141" s="6">
         <v>42402</v>
@@ -7155,18 +7155,18 @@
         <v>0.14299000000000001</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H141">
         <v>21.97</v>
       </c>
-      <c r="I141" s="16">
+      <c r="I141" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J141" s="17">
+      <c r="J141" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K141" s="5"/>
@@ -7191,7 +7191,7 @@
         <v>146</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C142" s="6">
         <v>42402</v>
@@ -7203,18 +7203,18 @@
         <v>0.11855</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H142">
         <v>20.74</v>
       </c>
-      <c r="I142" s="16">
+      <c r="I142" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J142" s="17">
+      <c r="J142" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K142" s="5"/>
@@ -7239,7 +7239,7 @@
         <v>155</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C143" s="6">
         <v>42402</v>
@@ -7251,18 +7251,18 @@
         <v>0.14113999999999999</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H143">
         <v>20.8</v>
       </c>
-      <c r="I143" s="16">
+      <c r="I143" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J143" s="17">
+      <c r="J143" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K143" s="5"/>
@@ -7287,7 +7287,7 @@
         <v>160</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C144" s="6">
         <v>42402</v>
@@ -7299,18 +7299,18 @@
         <v>0.15125</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H144">
         <v>16.5</v>
       </c>
-      <c r="I144" s="16">
+      <c r="I144" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J144" s="17">
+      <c r="J144" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K144" s="5"/>
@@ -7335,7 +7335,7 @@
         <v>165</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C145" s="6">
         <v>42402</v>
@@ -7347,18 +7347,18 @@
         <v>0.12489</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H145">
         <v>18.14</v>
       </c>
-      <c r="I145" s="16">
+      <c r="I145" s="14">
         <v>19.327272727272732</v>
       </c>
-      <c r="J145" s="17">
+      <c r="J145" s="15">
         <v>2.5499999999999998</v>
       </c>
       <c r="K145" s="5"/>
@@ -7394,8 +7394,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7408,56 +7408,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -7471,34 +7471,34 @@
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8">
         <v>20</v>
@@ -7507,22 +7507,22 @@
         <v>43300</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8">
         <v>25</v>
@@ -7531,22 +7531,22 @@
         <v>43300</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="8">
         <v>26</v>
@@ -7555,22 +7555,22 @@
         <v>43300</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8">
         <v>27</v>
@@ -7579,22 +7579,22 @@
         <v>43300</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8">
         <v>19</v>
@@ -7603,22 +7603,22 @@
         <v>43300</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8">
         <v>19</v>
@@ -7627,22 +7627,22 @@
         <v>43300</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8">
         <v>31</v>
@@ -7651,10 +7651,10 @@
         <v>43486</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14" s="9">
         <v>2004</v>
@@ -7663,10 +7663,10 @@
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8">
         <v>31</v>
@@ -7675,10 +7675,10 @@
         <v>43486</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="9">
         <v>2004</v>
@@ -7687,10 +7687,10 @@
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="8">
         <v>31</v>
@@ -7699,10 +7699,10 @@
         <v>43486</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" s="9">
         <v>2004</v>
@@ -7711,10 +7711,10 @@
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="8">
         <v>58</v>
@@ -7723,22 +7723,22 @@
         <v>43300</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="8">
         <v>59</v>
@@ -7747,22 +7747,22 @@
         <v>43300</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="8">
         <v>68</v>
@@ -7771,22 +7771,22 @@
         <v>43300</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="8">
         <v>10</v>
@@ -7795,22 +7795,22 @@
         <v>43300</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="8">
         <v>9</v>
@@ -7819,22 +7819,22 @@
         <v>43300</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="10">
         <v>44324</v>
@@ -7843,22 +7843,22 @@
         <v>43300</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="8">
         <v>20</v>
@@ -7867,10 +7867,10 @@
         <v>43486</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G23" s="9">
         <v>2002</v>
@@ -7879,10 +7879,10 @@
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="8">
         <v>20</v>
@@ -7891,10 +7891,10 @@
         <v>43486</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24" s="9">
         <v>2002</v>
@@ -7903,10 +7903,10 @@
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="8">
         <v>20</v>
@@ -7915,10 +7915,10 @@
         <v>43486</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25" s="9">
         <v>2002</v>
